--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6813643333333333</v>
+        <v>0.6542786666666667</v>
       </c>
       <c r="H2">
-        <v>2.044093</v>
+        <v>1.962836</v>
       </c>
       <c r="I2">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="J2">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N2">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O2">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P2">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q2">
-        <v>31.57235163197189</v>
+        <v>36.540551468872</v>
       </c>
       <c r="R2">
-        <v>284.151164687747</v>
+        <v>328.864963219848</v>
       </c>
       <c r="S2">
-        <v>0.06877653835974759</v>
+        <v>0.07418551156160179</v>
       </c>
       <c r="T2">
-        <v>0.06877653835974759</v>
+        <v>0.07418551156160177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6813643333333333</v>
+        <v>0.6542786666666667</v>
       </c>
       <c r="H3">
-        <v>2.044093</v>
+        <v>1.962836</v>
       </c>
       <c r="I3">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="J3">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>253.528801</v>
       </c>
       <c r="O3">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P3">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q3">
-        <v>57.5818274913881</v>
+        <v>55.29282862662622</v>
       </c>
       <c r="R3">
-        <v>518.236447422493</v>
+        <v>497.635457639636</v>
       </c>
       <c r="S3">
-        <v>0.1254350266159911</v>
+        <v>0.1122568382923442</v>
       </c>
       <c r="T3">
-        <v>0.1254350266159911</v>
+        <v>0.1122568382923442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6813643333333333</v>
+        <v>0.6542786666666667</v>
       </c>
       <c r="H4">
-        <v>2.044093</v>
+        <v>1.962836</v>
       </c>
       <c r="I4">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="J4">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N4">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O4">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P4">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q4">
-        <v>19.80510578749223</v>
+        <v>21.71942938443734</v>
       </c>
       <c r="R4">
-        <v>178.24595208743</v>
+        <v>195.474864459936</v>
       </c>
       <c r="S4">
-        <v>0.04314302063369123</v>
+        <v>0.04409531096111586</v>
       </c>
       <c r="T4">
-        <v>0.04314302063369122</v>
+        <v>0.04409531096111585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6813643333333333</v>
+        <v>0.6542786666666667</v>
       </c>
       <c r="H5">
-        <v>2.044093</v>
+        <v>1.962836</v>
       </c>
       <c r="I5">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="J5">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N5">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O5">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P5">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q5">
-        <v>49.41792741126688</v>
+        <v>43.72076214756623</v>
       </c>
       <c r="R5">
-        <v>444.761346701402</v>
+        <v>393.486859328096</v>
       </c>
       <c r="S5">
-        <v>0.107650960558111</v>
+        <v>0.08876294898130724</v>
       </c>
       <c r="T5">
-        <v>0.1076509605581111</v>
+        <v>0.08876294898130721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.535651</v>
       </c>
       <c r="I6">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="J6">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N6">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O6">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P6">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q6">
-        <v>39.164786038581</v>
+        <v>47.204191217502</v>
       </c>
       <c r="R6">
-        <v>352.483074347229</v>
+        <v>424.837720957518</v>
       </c>
       <c r="S6">
-        <v>0.08531573576565857</v>
+        <v>0.09583509094834572</v>
       </c>
       <c r="T6">
-        <v>0.08531573576565857</v>
+        <v>0.09583509094834571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.535651</v>
       </c>
       <c r="I7">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="J7">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>253.528801</v>
       </c>
       <c r="O7">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P7">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q7">
         <v>71.428950864939</v>
@@ -883,10 +883,10 @@
         <v>642.860557784451</v>
       </c>
       <c r="S7">
-        <v>0.1555993052536574</v>
+        <v>0.1450167840170146</v>
       </c>
       <c r="T7">
-        <v>0.1555993052536574</v>
+        <v>0.1450167840170146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.535651</v>
       </c>
       <c r="I8">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="J8">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N8">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O8">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P8">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q8">
-        <v>24.56778448689</v>
+        <v>28.057816770264</v>
       </c>
       <c r="R8">
-        <v>221.11006038201</v>
+        <v>252.520350932376</v>
       </c>
       <c r="S8">
-        <v>0.05351793847581288</v>
+        <v>0.05696365836670225</v>
       </c>
       <c r="T8">
-        <v>0.05351793847581288</v>
+        <v>0.05696365836670224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.535651</v>
       </c>
       <c r="I9">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="J9">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N9">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O9">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P9">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q9">
-        <v>61.30181799864599</v>
+        <v>56.47980486410401</v>
       </c>
       <c r="R9">
-        <v>551.716361987814</v>
+        <v>508.3182437769361</v>
       </c>
       <c r="S9">
-        <v>0.1335385747077725</v>
+        <v>0.1146666661643666</v>
       </c>
       <c r="T9">
-        <v>0.1335385747077725</v>
+        <v>0.1146666661643666</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4392866666666667</v>
+        <v>0.5380133333333333</v>
       </c>
       <c r="H10">
-        <v>1.31786</v>
+        <v>1.61404</v>
       </c>
       <c r="I10">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="J10">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N10">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O10">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P10">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q10">
-        <v>20.35520855543778</v>
+        <v>30.04729467608</v>
       </c>
       <c r="R10">
-        <v>183.19687699894</v>
+        <v>270.42565208472</v>
       </c>
       <c r="S10">
-        <v>0.04434135278716622</v>
+        <v>0.06100274453947641</v>
       </c>
       <c r="T10">
-        <v>0.04434135278716621</v>
+        <v>0.06100274453947641</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4392866666666667</v>
+        <v>0.5380133333333333</v>
       </c>
       <c r="H11">
-        <v>1.31786</v>
+        <v>1.61404</v>
       </c>
       <c r="I11">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="J11">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>253.528801</v>
       </c>
       <c r="O11">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P11">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q11">
-        <v>37.12394063176222</v>
+        <v>45.46729177400444</v>
       </c>
       <c r="R11">
-        <v>334.11546568586</v>
+        <v>409.20562596604</v>
       </c>
       <c r="S11">
-        <v>0.08087000159784802</v>
+        <v>0.09230879568001364</v>
       </c>
       <c r="T11">
-        <v>0.08087000159784802</v>
+        <v>0.09230879568001364</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4392866666666667</v>
+        <v>0.5380133333333333</v>
       </c>
       <c r="H12">
-        <v>1.31786</v>
+        <v>1.61404</v>
       </c>
       <c r="I12">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="J12">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N12">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O12">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P12">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q12">
-        <v>12.76867378984445</v>
+        <v>17.85988630922667</v>
       </c>
       <c r="R12">
-        <v>114.9180641086</v>
+        <v>160.73897678304</v>
       </c>
       <c r="S12">
-        <v>0.02781500703359207</v>
+        <v>0.0362595732418192</v>
       </c>
       <c r="T12">
-        <v>0.02781500703359207</v>
+        <v>0.03625957324181919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4392866666666667</v>
+        <v>0.5380133333333333</v>
       </c>
       <c r="H13">
-        <v>1.31786</v>
+        <v>1.61404</v>
       </c>
       <c r="I13">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="J13">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N13">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O13">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P13">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q13">
-        <v>31.86054148133777</v>
+        <v>35.95158176060445</v>
       </c>
       <c r="R13">
-        <v>286.74487333204</v>
+        <v>323.56423584544</v>
       </c>
       <c r="S13">
-        <v>0.06940432498967132</v>
+        <v>0.0729897710118365</v>
       </c>
       <c r="T13">
-        <v>0.06940432498967132</v>
+        <v>0.07298977101183649</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.009069333333333334</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H14">
-        <v>0.027208</v>
+        <v>0.034771</v>
       </c>
       <c r="I14">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="J14">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N14">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O14">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P14">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q14">
-        <v>0.4202453328702223</v>
+        <v>0.6473039597420001</v>
       </c>
       <c r="R14">
-        <v>3.782207995832</v>
+        <v>5.825735637678</v>
       </c>
       <c r="S14">
-        <v>0.0009154534826409623</v>
+        <v>0.001314172158299754</v>
       </c>
       <c r="T14">
-        <v>0.000915453482640962</v>
+        <v>0.001314172158299754</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.009069333333333334</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H15">
-        <v>0.027208</v>
+        <v>0.034771</v>
       </c>
       <c r="I15">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="J15">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>253.528801</v>
       </c>
       <c r="O15">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P15">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q15">
-        <v>0.7664457352897778</v>
+        <v>0.9794944377301111</v>
       </c>
       <c r="R15">
-        <v>6.898011617608</v>
+        <v>8.815449939571</v>
       </c>
       <c r="S15">
-        <v>0.001669609065814464</v>
+        <v>0.001988593302885774</v>
       </c>
       <c r="T15">
-        <v>0.001669609065814464</v>
+        <v>0.001988593302885774</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.009069333333333334</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H16">
-        <v>0.027208</v>
+        <v>0.034771</v>
       </c>
       <c r="I16">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="J16">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N16">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O16">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P16">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q16">
-        <v>0.2636168306755556</v>
+        <v>0.3847526126106667</v>
       </c>
       <c r="R16">
-        <v>2.37255147608</v>
+        <v>3.462773513496001</v>
       </c>
       <c r="S16">
-        <v>0.000574257289370626</v>
+        <v>0.0007811340618518101</v>
       </c>
       <c r="T16">
-        <v>0.0005742572893706258</v>
+        <v>0.00078113406185181</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.009069333333333334</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H17">
-        <v>0.027208</v>
+        <v>0.034771</v>
       </c>
       <c r="I17">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="J17">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N17">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O17">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P17">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q17">
-        <v>0.6577797433902222</v>
+        <v>0.7744990516951114</v>
       </c>
       <c r="R17">
-        <v>5.920017690511999</v>
+        <v>6.970491465256002</v>
       </c>
       <c r="S17">
-        <v>0.001432893383454219</v>
+        <v>0.001572406711018666</v>
       </c>
       <c r="T17">
-        <v>0.001432893383454219</v>
+        <v>0.001572406711018666</v>
       </c>
     </row>
   </sheetData>
